--- a/scene_cat_exp_2023.2/input_files/1_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/1_scenecat_memory_living_rooms_2.xlsx
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -497,34 +497,34 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>93.81395348837209</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N2">
-        <v>78.27906976744185</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O2">
-        <v>86.04651162790697</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -558,14 +558,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -575,29 +570,29 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_5tr4v.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>56.86046511627907</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N3">
-        <v>39.3953488372093</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O3">
-        <v>48.12790697674419</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S3">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -619,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -631,9 +626,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -643,29 +643,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_astid.png</t>
+          <t>stimuli/img_zxvl3.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>31.04761904761905</v>
+        <v>68.78260869565217</v>
       </c>
       <c r="N4">
-        <v>25.54761904761905</v>
+        <v>47.56521739130435</v>
       </c>
       <c r="O4">
-        <v>28.29761904761905</v>
+        <v>58.17391304347827</v>
       </c>
       <c r="P4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -687,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -699,9 +699,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -711,29 +716,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_qz292.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>78.26666666666667</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N5">
-        <v>59.13333333333333</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O5">
-        <v>68.7</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P5">
         <v>45</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -755,7 +760,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -779,34 +784,34 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_6wne4.png</t>
+          <t>stimuli/img_vh7v8.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>25.16279069767442</v>
+        <v>78.70454545454545</v>
       </c>
       <c r="N6">
-        <v>15</v>
+        <v>59.63636363636363</v>
       </c>
       <c r="O6">
-        <v>20.08139534883721</v>
+        <v>69.17045454545455</v>
       </c>
       <c r="P6">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -828,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -840,14 +845,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -857,29 +857,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_95hiv.png</t>
+          <t>stimuli/img_7lz7m.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>84.04545454545455</v>
+        <v>51.5531914893617</v>
       </c>
       <c r="N7">
-        <v>67.31818181818181</v>
+        <v>32.87234042553192</v>
       </c>
       <c r="O7">
-        <v>75.68181818181819</v>
+        <v>42.21276595744681</v>
       </c>
       <c r="P7">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S7">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -901,7 +901,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -913,14 +913,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -930,29 +925,29 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_1iam9.png</t>
+          <t>stimuli/img_3jnt7.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>31.94594594594595</v>
+        <v>49.52272727272727</v>
       </c>
       <c r="N8">
-        <v>23.97297297297297</v>
+        <v>35.25</v>
       </c>
       <c r="O8">
-        <v>27.95945945945946</v>
+        <v>42.38636363636364</v>
       </c>
       <c r="P8">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -974,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -986,9 +981,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -998,29 +998,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_wixv2.png</t>
+          <t>stimuli/img_rru0v.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>30.64444444444445</v>
+        <v>56.45238095238095</v>
       </c>
       <c r="N9">
-        <v>24.62222222222222</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="O9">
-        <v>27.63333333333333</v>
+        <v>47.94047619047619</v>
       </c>
       <c r="P9">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1042,7 +1042,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1066,34 +1066,34 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_s2zoe.png</t>
+          <t>stimuli/img_24rt2.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>64.71428571428571</v>
+        <v>55.26829268292683</v>
       </c>
       <c r="N10">
-        <v>44.90476190476191</v>
+        <v>34.19512195121951</v>
       </c>
       <c r="O10">
-        <v>54.80952380952381</v>
+        <v>44.73170731707317</v>
       </c>
       <c r="P10">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1115,7 +1115,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1139,25 +1139,25 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_z4jxm.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>88.30952380952381</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N11">
-        <v>72.64285714285714</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O11">
-        <v>80.47619047619048</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P11">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1212,34 +1212,34 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_pbsj1.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>73.88636363636364</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N12">
-        <v>51.52272727272727</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O12">
-        <v>62.70454545454545</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P12">
         <v>44</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1273,9 +1273,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1285,29 +1290,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_zh8ms.png</t>
+          <t>stimuli/img_9oofc.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>59.82608695652174</v>
+        <v>82.47619047619048</v>
       </c>
       <c r="N13">
-        <v>39.43478260869565</v>
+        <v>65.5</v>
       </c>
       <c r="O13">
-        <v>49.6304347826087</v>
+        <v>73.98809523809524</v>
       </c>
       <c r="P13">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S13">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1329,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1353,34 +1358,34 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_lo6c4.png</t>
+          <t>stimuli/img_vgh2g.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>13.02380952380952</v>
+        <v>93.81395348837209</v>
       </c>
       <c r="N14">
-        <v>11.57142857142857</v>
+        <v>78.27906976744185</v>
       </c>
       <c r="O14">
-        <v>12.29761904761905</v>
+        <v>86.04651162790697</v>
       </c>
       <c r="P14">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="R14">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1402,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1414,14 +1419,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1431,29 +1431,29 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_qdln8.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>82.47619047619048</v>
+        <v>85.51162790697674</v>
       </c>
       <c r="N15">
-        <v>65.5</v>
+        <v>67.86046511627907</v>
       </c>
       <c r="O15">
-        <v>73.98809523809524</v>
+        <v>76.68604651162791</v>
       </c>
       <c r="P15">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1475,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1489,12 +1489,12 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/catch_20.jpg</t>
+          <t>stimuli/catch_05.jpg</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1541,34 +1541,34 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
+          <t>stimuli/img_of8d6.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>86.08510638297872</v>
+        <v>26.04878048780488</v>
       </c>
       <c r="N17">
-        <v>65.95744680851064</v>
+        <v>19.14634146341463</v>
       </c>
       <c r="O17">
-        <v>76.02127659574468</v>
+        <v>22.59756097560975</v>
       </c>
       <c r="P17">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S17">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1590,7 +1590,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1614,34 +1614,34 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_xu1p3.png</t>
+          <t>stimuli/img_kq9s9.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>75.27659574468085</v>
+        <v>62.30232558139535</v>
       </c>
       <c r="N18">
-        <v>56.68085106382978</v>
+        <v>39.97674418604651</v>
       </c>
       <c r="O18">
-        <v>65.97872340425532</v>
+        <v>51.13953488372093</v>
       </c>
       <c r="P18">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="R18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="S18">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1663,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1675,14 +1675,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1692,29 +1687,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_lpr0l.png</t>
+          <t>stimuli/img_lgxzn.png</t>
         </is>
       </c>
       <c r="M19">
-        <v>77.04651162790698</v>
+        <v>73.11363636363636</v>
       </c>
       <c r="N19">
-        <v>59.86046511627907</v>
+        <v>49.97727272727273</v>
       </c>
       <c r="O19">
-        <v>68.45348837209303</v>
+        <v>61.54545454545455</v>
       </c>
       <c r="P19">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S19">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1736,7 +1731,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1760,34 +1755,34 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_xpco9.png</t>
+          <t>stimuli/img_rg4in.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>81.55555555555556</v>
+        <v>49.3695652173913</v>
       </c>
       <c r="N20">
-        <v>64.68888888888888</v>
+        <v>30.21739130434782</v>
       </c>
       <c r="O20">
-        <v>73.12222222222222</v>
+        <v>39.79347826086956</v>
       </c>
       <c r="P20">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S20">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -1809,7 +1804,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1833,34 +1828,34 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_vnxft.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>53.22727272727273</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N21">
-        <v>34.84090909090909</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O21">
-        <v>44.03409090909091</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P21">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R21">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="S21">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1882,7 +1877,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1894,9 +1889,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1906,29 +1906,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_syam3.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>64.11363636363636</v>
+        <v>41.32432432432432</v>
       </c>
       <c r="N22">
-        <v>43.04545454545455</v>
+        <v>26.2972972972973</v>
       </c>
       <c r="O22">
-        <v>53.57954545454545</v>
+        <v>33.81081081081081</v>
       </c>
       <c r="P22">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1950,7 +1950,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1962,14 +1962,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1979,29 +1974,29 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_q9lab.png</t>
+          <t>stimuli/img_bf8nx.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>53.97560975609756</v>
+        <v>86.63414634146342</v>
       </c>
       <c r="N23">
-        <v>32.90243902439025</v>
+        <v>66.63414634146342</v>
       </c>
       <c r="O23">
-        <v>43.4390243902439</v>
+        <v>76.63414634146342</v>
       </c>
       <c r="P23">
         <v>41</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R23">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S23">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -2023,7 +2018,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2047,34 +2042,34 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_c89x3.png</t>
+          <t>stimuli/img_amsgw.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>72.8695652173913</v>
+        <v>86.08510638297872</v>
       </c>
       <c r="N24">
-        <v>49.65217391304348</v>
+        <v>65.95744680851064</v>
       </c>
       <c r="O24">
-        <v>61.26086956521739</v>
+        <v>76.02127659574468</v>
       </c>
       <c r="P24">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -2096,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2120,34 +2115,34 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_wbws6.png</t>
+          <t>stimuli/img_j4ttn.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>57.97777777777777</v>
+        <v>12.61904761904762</v>
       </c>
       <c r="N25">
-        <v>42.53333333333333</v>
+        <v>11.42857142857143</v>
       </c>
       <c r="O25">
-        <v>50.25555555555555</v>
+        <v>12.02380952380952</v>
       </c>
       <c r="P25">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Q25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S25">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2169,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2193,34 +2188,34 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_73pyk.png</t>
+          <t>stimuli/img_iudc4.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>69.27659574468085</v>
+        <v>73.625</v>
       </c>
       <c r="N26">
-        <v>47.27659574468085</v>
+        <v>52.275</v>
       </c>
       <c r="O26">
-        <v>58.27659574468085</v>
+        <v>62.95</v>
       </c>
       <c r="P26">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -2242,7 +2237,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2254,9 +2249,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2266,29 +2266,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>68.78260869565217</v>
+        <v>70.75</v>
       </c>
       <c r="N27">
-        <v>47.56521739130435</v>
+        <v>50.375</v>
       </c>
       <c r="O27">
-        <v>58.17391304347827</v>
+        <v>60.5625</v>
       </c>
       <c r="P27">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S27">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -2310,7 +2310,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2322,14 +2322,9 @@
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2339,29 +2334,29 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_pdzf1.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>30.4468085106383</v>
+        <v>86.23913043478261</v>
       </c>
       <c r="N28">
-        <v>23.4468085106383</v>
+        <v>67.17391304347827</v>
       </c>
       <c r="O28">
-        <v>26.9468085106383</v>
+        <v>76.70652173913044</v>
       </c>
       <c r="P28">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R28">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -2383,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2395,9 +2390,14 @@
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_37hgm.png</t>
+          <t>stimuli/img_2qhro.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>70.95454545454545</v>
+        <v>81.73809523809524</v>
       </c>
       <c r="N29">
-        <v>54.77272727272727</v>
+        <v>62.73809523809524</v>
       </c>
       <c r="O29">
-        <v>62.86363636363636</v>
+        <v>72.23809523809524</v>
       </c>
       <c r="P29">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R29">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S29">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/1_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/1_scenecat_memory_living_rooms_2.xlsx
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>327</v>
+        <v>243</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_rych7.png</t>
+          <t>stimuli/img_yeh72.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>30.4468085106383</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="N2">
-        <v>23.4468085106383</v>
+        <v>45.21212121212121</v>
       </c>
       <c r="O2">
-        <v>26.9468085106383</v>
+        <v>56.93939393939394</v>
       </c>
       <c r="P2">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="Q2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>328</v>
+        <v>244</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,44 +555,49 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_pna7l.png</t>
+          <t>stimuli/img_d8xbu.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>85.53333333333333</v>
+        <v>91.36363636363636</v>
       </c>
       <c r="N3">
-        <v>67.97777777777777</v>
+        <v>73.18181818181819</v>
       </c>
       <c r="O3">
-        <v>76.75555555555556</v>
+        <v>82.27272727272728</v>
       </c>
       <c r="P3">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -605,7 +610,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -614,7 +619,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>329</v>
+        <v>245</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -623,7 +628,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -643,29 +648,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_zxvl3.png</t>
+          <t>stimuli/img_t90e2.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>68.78260869565217</v>
+        <v>83.0625</v>
       </c>
       <c r="N4">
-        <v>47.56521739130435</v>
+        <v>61.96875</v>
       </c>
       <c r="O4">
-        <v>58.17391304347827</v>
+        <v>72.515625</v>
       </c>
       <c r="P4">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -678,7 +683,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -687,7 +692,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>330</v>
+        <v>246</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -696,7 +701,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -716,29 +721,29 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_ac0ey.png</t>
+          <t>stimuli/img_eatdk.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>86.62222222222222</v>
+        <v>81.40625</v>
       </c>
       <c r="N5">
-        <v>70.02222222222223</v>
+        <v>61.375</v>
       </c>
       <c r="O5">
-        <v>78.32222222222222</v>
+        <v>71.390625</v>
       </c>
       <c r="P5">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -751,7 +756,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -760,7 +765,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>331</v>
+        <v>247</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -769,7 +774,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -789,29 +794,29 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_vh7v8.png</t>
+          <t>stimuli/img_uwv6y.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>78.70454545454545</v>
+        <v>78.88888888888889</v>
       </c>
       <c r="N6">
-        <v>59.63636363636363</v>
+        <v>59.30555555555556</v>
       </c>
       <c r="O6">
-        <v>69.17045454545455</v>
+        <v>69.09722222222223</v>
       </c>
       <c r="P6">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -824,7 +829,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -833,7 +838,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>332</v>
+        <v>248</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -842,7 +847,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -857,29 +862,29 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>stimuli/img_7lz7m.png</t>
+          <t>stimuli/img_3v5w3.png</t>
         </is>
       </c>
       <c r="M7">
-        <v>51.5531914893617</v>
+        <v>88.90625</v>
       </c>
       <c r="N7">
-        <v>32.87234042553192</v>
+        <v>68.15625</v>
       </c>
       <c r="O7">
-        <v>42.21276595744681</v>
+        <v>78.53125</v>
       </c>
       <c r="P7">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -892,7 +897,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -901,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>333</v>
+        <v>249</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -910,44 +915,49 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_3jnt7.png</t>
+          <t>stimuli/img_ye5sl.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>49.52272727272727</v>
+        <v>53.2258064516129</v>
       </c>
       <c r="N8">
-        <v>35.25</v>
+        <v>34.45161290322581</v>
       </c>
       <c r="O8">
-        <v>42.38636363636364</v>
+        <v>43.83870967741936</v>
       </c>
       <c r="P8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -960,7 +970,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -969,7 +979,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>334</v>
+        <v>250</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -978,7 +988,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -998,29 +1008,29 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_rru0v.png</t>
+          <t>stimuli/img_cnyac.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>56.45238095238095</v>
+        <v>69.14705882352941</v>
       </c>
       <c r="N9">
-        <v>39.42857142857143</v>
+        <v>47.8235294117647</v>
       </c>
       <c r="O9">
-        <v>47.94047619047619</v>
+        <v>58.48529411764706</v>
       </c>
       <c r="P9">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S9">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1033,7 +1043,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1042,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>335</v>
+        <v>251</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1051,49 +1061,44 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_24rt2.png</t>
+          <t>stimuli/img_3tnh4.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>55.26829268292683</v>
+        <v>80.43243243243244</v>
       </c>
       <c r="N10">
-        <v>34.19512195121951</v>
+        <v>58.72972972972973</v>
       </c>
       <c r="O10">
-        <v>44.73170731707317</v>
+        <v>69.58108108108108</v>
       </c>
       <c r="P10">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="R10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1111,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1115,7 +1120,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>336</v>
+        <v>252</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1124,49 +1129,44 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_tn8ys.png</t>
+          <t>stimuli/img_ub9nn.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>86.70454545454545</v>
+        <v>78.77142857142857</v>
       </c>
       <c r="N11">
-        <v>72.40909090909091</v>
+        <v>60.37142857142857</v>
       </c>
       <c r="O11">
-        <v>79.55681818181819</v>
+        <v>69.57142857142857</v>
       </c>
       <c r="P11">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S11">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1188,7 +1188,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>337</v>
+        <v>253</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1217,29 +1217,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_swq34.png</t>
+          <t>stimuli/img_3gm8h.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>64.11363636363636</v>
+        <v>65.07894736842105</v>
       </c>
       <c r="N12">
-        <v>43.04545454545455</v>
+        <v>43.92105263157895</v>
       </c>
       <c r="O12">
-        <v>53.57954545454545</v>
+        <v>54.5</v>
       </c>
       <c r="P12">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1261,7 +1261,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>338</v>
+        <v>254</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1290,29 +1290,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_9oofc.png</t>
+          <t>stimuli/img_aplao.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>82.47619047619048</v>
+        <v>64.09090909090909</v>
       </c>
       <c r="N13">
-        <v>65.5</v>
+        <v>40.75757575757576</v>
       </c>
       <c r="O13">
-        <v>73.98809523809524</v>
+        <v>52.42424242424242</v>
       </c>
       <c r="P13">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S13">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1334,7 +1334,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>339</v>
+        <v>255</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1363,20 +1363,20 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_vgh2g.png</t>
+          <t>stimuli/img_a8wvq.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>93.81395348837209</v>
+        <v>86.25925925925925</v>
       </c>
       <c r="N14">
-        <v>78.27906976744185</v>
+        <v>66.25925925925925</v>
       </c>
       <c r="O14">
-        <v>86.04651162790697</v>
+        <v>76.25925925925925</v>
       </c>
       <c r="P14">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1407,7 +1407,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>340</v>
+        <v>256</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1416,44 +1416,49 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_qdln8.png</t>
+          <t>stimuli/img_60242.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>85.51162790697674</v>
+        <v>78.33333333333333</v>
       </c>
       <c r="N15">
-        <v>67.86046511627907</v>
+        <v>57.57575757575758</v>
       </c>
       <c r="O15">
-        <v>76.68604651162791</v>
+        <v>67.95454545454545</v>
       </c>
       <c r="P15">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1466,7 +1471,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1475,16 +1480,21 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>341</v>
+        <v>257</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>kitchens</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1494,8 +1504,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/catch_05.jpg</t>
-        </is>
+          <t>stimuli/img_c30d1.png</t>
+        </is>
+      </c>
+      <c r="M16">
+        <v>78.875</v>
+      </c>
+      <c r="N16">
+        <v>60.34375</v>
+      </c>
+      <c r="O16">
+        <v>69.609375</v>
+      </c>
+      <c r="P16">
+        <v>32</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+      <c r="R16">
+        <v>8</v>
+      </c>
+      <c r="S16">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1508,7 +1539,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1517,7 +1548,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>342</v>
+        <v>258</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1526,7 +1557,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1546,29 +1577,29 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_of8d6.png</t>
+          <t>stimuli/img_iyxnj.png</t>
         </is>
       </c>
       <c r="M17">
-        <v>26.04878048780488</v>
+        <v>75.30555555555556</v>
       </c>
       <c r="N17">
-        <v>19.14634146341463</v>
+        <v>54.33333333333334</v>
       </c>
       <c r="O17">
-        <v>22.59756097560975</v>
+        <v>64.81944444444444</v>
       </c>
       <c r="P17">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S17">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1581,7 +1612,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1590,7 +1621,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>343</v>
+        <v>259</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1599,7 +1630,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1619,29 +1650,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_kq9s9.png</t>
+          <t>stimuli/img_inqod.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>62.30232558139535</v>
+        <v>70.84848484848484</v>
       </c>
       <c r="N18">
-        <v>39.97674418604651</v>
+        <v>50.63636363636363</v>
       </c>
       <c r="O18">
-        <v>51.13953488372093</v>
+        <v>60.74242424242424</v>
       </c>
       <c r="P18">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1654,7 +1685,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1663,21 +1694,16 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1687,29 +1713,8 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/img_lgxzn.png</t>
-        </is>
-      </c>
-      <c r="M19">
-        <v>73.11363636363636</v>
-      </c>
-      <c r="N19">
-        <v>49.97727272727273</v>
-      </c>
-      <c r="O19">
-        <v>61.54545454545455</v>
-      </c>
-      <c r="P19">
-        <v>44</v>
-      </c>
-      <c r="Q19">
-        <v>6</v>
-      </c>
-      <c r="R19">
-        <v>6</v>
-      </c>
-      <c r="S19">
-        <v>6</v>
+          <t>stimuli/catch_25.jpg</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1722,7 +1727,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1731,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1740,7 +1745,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1760,29 +1765,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_rg4in.png</t>
+          <t>stimuli/img_p3hpc.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>49.3695652173913</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="N20">
-        <v>30.21739130434782</v>
+        <v>52.22222222222222</v>
       </c>
       <c r="O20">
-        <v>39.79347826086956</v>
+        <v>62.52777777777777</v>
       </c>
       <c r="P20">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R20">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S20">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1795,7 +1800,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1804,7 +1809,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>346</v>
+        <v>262</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1813,7 +1818,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1833,29 +1838,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_xr3up.png</t>
+          <t>stimuli/img_nyv2b.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>76.24444444444444</v>
+        <v>11.91176470588235</v>
       </c>
       <c r="N21">
-        <v>55.88888888888889</v>
+        <v>6.852941176470588</v>
       </c>
       <c r="O21">
-        <v>66.06666666666666</v>
+        <v>9.382352941176471</v>
       </c>
       <c r="P21">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1868,7 +1873,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1877,7 +1882,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>347</v>
+        <v>263</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1886,7 +1891,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1906,29 +1911,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_syam3.png</t>
+          <t>stimuli/img_9mky8.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>41.32432432432432</v>
+        <v>84.32352941176471</v>
       </c>
       <c r="N22">
-        <v>26.2972972972973</v>
+        <v>65.17647058823529</v>
       </c>
       <c r="O22">
-        <v>33.81081081081081</v>
+        <v>74.75</v>
       </c>
       <c r="P22">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1941,7 +1946,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1950,7 +1955,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>348</v>
+        <v>264</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1959,7 +1964,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1974,20 +1979,20 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_bf8nx.png</t>
+          <t>stimuli/img_57os5.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>86.63414634146342</v>
+        <v>82.70588235294117</v>
       </c>
       <c r="N23">
-        <v>66.63414634146342</v>
+        <v>65.73529411764706</v>
       </c>
       <c r="O23">
-        <v>76.63414634146342</v>
+        <v>74.22058823529412</v>
       </c>
       <c r="P23">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -2009,7 +2014,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2018,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>349</v>
+        <v>265</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2027,49 +2032,44 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_amsgw.png</t>
+          <t>stimuli/img_ensho.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>86.08510638297872</v>
+        <v>72.7948717948718</v>
       </c>
       <c r="N24">
-        <v>65.95744680851064</v>
+        <v>54.56410256410256</v>
       </c>
       <c r="O24">
-        <v>76.02127659574468</v>
+        <v>63.67948717948718</v>
       </c>
       <c r="P24">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R24">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S24">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>350</v>
+        <v>266</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2120,29 +2120,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_j4ttn.png</t>
+          <t>stimuli/img_wyl6z.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>12.61904761904762</v>
+        <v>59.8235294117647</v>
       </c>
       <c r="N25">
-        <v>11.42857142857143</v>
+        <v>36.23529411764706</v>
       </c>
       <c r="O25">
-        <v>12.02380952380952</v>
+        <v>48.02941176470588</v>
       </c>
       <c r="P25">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S25">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2155,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2164,7 +2164,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>351</v>
+        <v>267</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2173,49 +2173,44 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_iudc4.png</t>
+          <t>stimuli/img_r2lxk.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>73.625</v>
+        <v>89.24242424242425</v>
       </c>
       <c r="N26">
-        <v>52.275</v>
+        <v>67.6969696969697</v>
       </c>
       <c r="O26">
-        <v>62.95</v>
+        <v>78.46969696969697</v>
       </c>
       <c r="P26">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S26">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -2228,7 +2223,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2237,7 +2232,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>352</v>
+        <v>268</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2246,7 +2241,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -2266,29 +2261,29 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_ra2nm.png</t>
+          <t>stimuli/img_7wul8.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>70.75</v>
+        <v>43.03030303030303</v>
       </c>
       <c r="N27">
-        <v>50.375</v>
+        <v>25.54545454545455</v>
       </c>
       <c r="O27">
-        <v>60.5625</v>
+        <v>34.28787878787879</v>
       </c>
       <c r="P27">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S27">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -2301,7 +2296,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2310,7 +2305,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>353</v>
+        <v>269</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2319,44 +2314,49 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_pdzf1.png</t>
+          <t>stimuli/img_463mq.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>86.23913043478261</v>
+        <v>51.35294117647059</v>
       </c>
       <c r="N28">
-        <v>67.17391304347827</v>
+        <v>30.20588235294118</v>
       </c>
       <c r="O28">
-        <v>76.70652173913044</v>
+        <v>40.77941176470588</v>
       </c>
       <c r="P28">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S28">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2369,7 +2369,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>living_rooms</t>
+          <t>kitchens</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2407,29 +2407,29 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>stimuli/img_2qhro.png</t>
+          <t>stimuli/img_ce9vx.png</t>
         </is>
       </c>
       <c r="M29">
-        <v>81.73809523809524</v>
+        <v>75.90909090909091</v>
       </c>
       <c r="N29">
-        <v>62.73809523809524</v>
+        <v>57.12121212121212</v>
       </c>
       <c r="O29">
-        <v>72.23809523809524</v>
+        <v>66.51515151515152</v>
       </c>
       <c r="P29">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S29">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/scene_cat_exp_2023.2/input_files/1_scenecat_memory_living_rooms_2.xlsx
+++ b/scene_cat_exp_2023.2/input_files/1_scenecat_memory_living_rooms_2.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -473,7 +473,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>243</v>
+        <v>362</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -482,7 +482,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -502,29 +502,29 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>stimuli/img_yeh72.png</t>
+          <t>stimuli/img_xr3up.png</t>
         </is>
       </c>
       <c r="M2">
-        <v>68.66666666666667</v>
+        <v>76.24444444444444</v>
       </c>
       <c r="N2">
-        <v>45.21212121212121</v>
+        <v>55.88888888888889</v>
       </c>
       <c r="O2">
-        <v>56.93939393939394</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P2">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="R2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>244</v>
+        <v>363</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -555,49 +555,44 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>stimuli/img_d8xbu.png</t>
+          <t>stimuli/img_yosqb.png</t>
         </is>
       </c>
       <c r="M3">
-        <v>91.36363636363636</v>
+        <v>50.88372093023256</v>
       </c>
       <c r="N3">
-        <v>73.18181818181819</v>
+        <v>30.11627906976744</v>
       </c>
       <c r="O3">
-        <v>82.27272727272728</v>
+        <v>40.5</v>
       </c>
       <c r="P3">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -610,7 +605,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -619,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -628,7 +623,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -648,29 +643,29 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>stimuli/img_t90e2.png</t>
+          <t>stimuli/img_swq34.png</t>
         </is>
       </c>
       <c r="M4">
-        <v>83.0625</v>
+        <v>64.11363636363636</v>
       </c>
       <c r="N4">
-        <v>61.96875</v>
+        <v>43.04545454545455</v>
       </c>
       <c r="O4">
-        <v>72.515625</v>
+        <v>53.57954545454545</v>
       </c>
       <c r="P4">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -683,7 +678,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -692,7 +687,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>246</v>
+        <v>365</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -701,49 +696,44 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>stimuli/img_eatdk.png</t>
+          <t>stimuli/img_x9w7o.png</t>
         </is>
       </c>
       <c r="M5">
-        <v>81.40625</v>
+        <v>92.38888888888889</v>
       </c>
       <c r="N5">
-        <v>61.375</v>
+        <v>72.94444444444444</v>
       </c>
       <c r="O5">
-        <v>71.390625</v>
+        <v>82.66666666666666</v>
       </c>
       <c r="P5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -756,7 +746,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -765,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>247</v>
+        <v>366</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -774,49 +764,44 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>stimuli/img_uwv6y.png</t>
+          <t>stimuli/img_lpr0l.png</t>
         </is>
       </c>
       <c r="M6">
-        <v>78.88888888888889</v>
+        <v>77.04651162790698</v>
       </c>
       <c r="N6">
-        <v>59.30555555555556</v>
+        <v>59.86046511627907</v>
       </c>
       <c r="O6">
-        <v>69.09722222222223</v>
+        <v>68.45348837209303</v>
       </c>
       <c r="P6">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -829,62 +814,67 @@
         </is>
       </c>
       <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>367</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>stimuli/img_73pyk.png</t>
+        </is>
+      </c>
+      <c r="M7">
+        <v>69.27659574468085</v>
+      </c>
+      <c r="N7">
+        <v>47.27659574468085</v>
+      </c>
+      <c r="O7">
+        <v>58.27659574468085</v>
+      </c>
+      <c r="P7">
+        <v>47</v>
+      </c>
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>6</v>
-      </c>
-      <c r="F7">
-        <v>248</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>living_rooms</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>f</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>stimuli/img_3v5w3.png</t>
-        </is>
-      </c>
-      <c r="M7">
-        <v>88.90625</v>
-      </c>
-      <c r="N7">
-        <v>68.15625</v>
-      </c>
-      <c r="O7">
-        <v>78.53125</v>
-      </c>
-      <c r="P7">
-        <v>32</v>
-      </c>
-      <c r="Q7">
-        <v>10</v>
-      </c>
       <c r="R7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -897,7 +887,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -906,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>249</v>
+        <v>368</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -915,49 +905,44 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>stimuli/img_ye5sl.png</t>
+          <t>stimuli/img_c89x3.png</t>
         </is>
       </c>
       <c r="M8">
-        <v>53.2258064516129</v>
+        <v>72.8695652173913</v>
       </c>
       <c r="N8">
-        <v>34.45161290322581</v>
+        <v>49.65217391304348</v>
       </c>
       <c r="O8">
-        <v>43.83870967741936</v>
+        <v>61.26086956521739</v>
       </c>
       <c r="P8">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -970,7 +955,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -979,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>250</v>
+        <v>369</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -988,49 +973,44 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>stimuli/img_cnyac.png</t>
+          <t>stimuli/img_3m61b.png</t>
         </is>
       </c>
       <c r="M9">
-        <v>69.14705882352941</v>
+        <v>81.97619047619048</v>
       </c>
       <c r="N9">
-        <v>47.8235294117647</v>
+        <v>63.23809523809524</v>
       </c>
       <c r="O9">
-        <v>58.48529411764706</v>
+        <v>72.60714285714286</v>
       </c>
       <c r="P9">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1043,7 +1023,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -1052,7 +1032,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>251</v>
+        <v>370</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1061,44 +1041,49 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>stimuli/img_3tnh4.png</t>
+          <t>stimuli/img_vnxft.png</t>
         </is>
       </c>
       <c r="M10">
-        <v>80.43243243243244</v>
+        <v>53.22727272727273</v>
       </c>
       <c r="N10">
-        <v>58.72972972972973</v>
+        <v>34.84090909090909</v>
       </c>
       <c r="O10">
-        <v>69.58108108108108</v>
+        <v>44.03409090909091</v>
       </c>
       <c r="P10">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1111,7 +1096,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -1120,7 +1105,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>252</v>
+        <v>371</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1129,35 +1114,40 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>stimuli/img_ub9nn.png</t>
+          <t>stimuli/img_tujn3.png</t>
         </is>
       </c>
       <c r="M11">
-        <v>78.77142857142857</v>
+        <v>81.40909090909091</v>
       </c>
       <c r="N11">
-        <v>60.37142857142857</v>
+        <v>62.52272727272727</v>
       </c>
       <c r="O11">
-        <v>69.57142857142857</v>
+        <v>71.96590909090909</v>
       </c>
       <c r="P11">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="Q11">
         <v>8</v>
@@ -1179,7 +1169,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1188,7 +1178,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>253</v>
+        <v>372</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1197,7 +1187,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1217,29 +1207,29 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>stimuli/img_3gm8h.png</t>
+          <t>stimuli/img_rych7.png</t>
         </is>
       </c>
       <c r="M12">
-        <v>65.07894736842105</v>
+        <v>30.4468085106383</v>
       </c>
       <c r="N12">
-        <v>43.92105263157895</v>
+        <v>23.4468085106383</v>
       </c>
       <c r="O12">
-        <v>54.5</v>
+        <v>26.9468085106383</v>
       </c>
       <c r="P12">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1252,7 +1242,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -1261,7 +1251,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>254</v>
+        <v>373</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1270,7 +1260,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1290,29 +1280,29 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>stimuli/img_aplao.png</t>
+          <t>stimuli/img_syam3.png</t>
         </is>
       </c>
       <c r="M13">
-        <v>64.09090909090909</v>
+        <v>41.32432432432432</v>
       </c>
       <c r="N13">
-        <v>40.75757575757576</v>
+        <v>26.2972972972973</v>
       </c>
       <c r="O13">
-        <v>52.42424242424242</v>
+        <v>33.81081081081081</v>
       </c>
       <c r="P13">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1325,7 +1315,7 @@
         </is>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1334,7 +1324,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>255</v>
+        <v>374</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1343,7 +1333,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1363,29 +1353,29 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>stimuli/img_a8wvq.png</t>
+          <t>stimuli/img_of8d6.png</t>
         </is>
       </c>
       <c r="M14">
-        <v>86.25925925925925</v>
+        <v>26.04878048780488</v>
       </c>
       <c r="N14">
-        <v>66.25925925925925</v>
+        <v>19.14634146341463</v>
       </c>
       <c r="O14">
-        <v>76.25925925925925</v>
+        <v>22.59756097560975</v>
       </c>
       <c r="P14">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="Q14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1398,7 +1388,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -1407,7 +1397,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>256</v>
+        <v>375</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1416,40 +1406,35 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>stimuli/img_60242.png</t>
+          <t>stimuli/img_i6wsx.png</t>
         </is>
       </c>
       <c r="M15">
-        <v>78.33333333333333</v>
+        <v>79.07142857142857</v>
       </c>
       <c r="N15">
-        <v>57.57575757575758</v>
+        <v>58</v>
       </c>
       <c r="O15">
-        <v>67.95454545454545</v>
+        <v>68.53571428571428</v>
       </c>
       <c r="P15">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q15">
         <v>7</v>
@@ -1471,7 +1456,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1480,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>257</v>
+        <v>376</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1489,7 +1474,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1504,29 +1489,29 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>stimuli/img_c30d1.png</t>
+          <t>stimuli/img_pna7l.png</t>
         </is>
       </c>
       <c r="M16">
-        <v>78.875</v>
+        <v>85.53333333333333</v>
       </c>
       <c r="N16">
-        <v>60.34375</v>
+        <v>67.97777777777777</v>
       </c>
       <c r="O16">
-        <v>69.609375</v>
+        <v>76.75555555555556</v>
       </c>
       <c r="P16">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S16">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1539,7 +1524,7 @@
         </is>
       </c>
       <c r="C17">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -1548,58 +1533,27 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>258</v>
+        <v>377</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>target</t>
-        </is>
-      </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>catch</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>stimuli/img_iyxnj.png</t>
-        </is>
-      </c>
-      <c r="M17">
-        <v>75.30555555555556</v>
-      </c>
-      <c r="N17">
-        <v>54.33333333333334</v>
-      </c>
-      <c r="O17">
-        <v>64.81944444444444</v>
-      </c>
-      <c r="P17">
-        <v>36</v>
-      </c>
-      <c r="Q17">
-        <v>6</v>
-      </c>
-      <c r="R17">
-        <v>6</v>
-      </c>
-      <c r="S17">
-        <v>6</v>
+          <t>stimuli/catch_23.jpg</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1612,7 +1566,7 @@
         </is>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -1621,7 +1575,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>259</v>
+        <v>378</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1630,7 +1584,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1650,29 +1604,29 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>stimuli/img_inqod.png</t>
+          <t>stimuli/img_g13d5.png</t>
         </is>
       </c>
       <c r="M18">
-        <v>70.84848484848484</v>
+        <v>73</v>
       </c>
       <c r="N18">
-        <v>50.63636363636363</v>
+        <v>51.51111111111111</v>
       </c>
       <c r="O18">
-        <v>60.74242424242424</v>
+        <v>62.25555555555556</v>
       </c>
       <c r="P18">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="Q18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R18">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1685,7 +1639,7 @@
         </is>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1694,16 +1648,21 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>260</v>
+        <v>379</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>living_rooms</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>catch</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1713,8 +1672,29 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/catch_25.jpg</t>
-        </is>
+          <t>stimuli/img_tv8e2.png</t>
+        </is>
+      </c>
+      <c r="M19">
+        <v>71.93023255813954</v>
+      </c>
+      <c r="N19">
+        <v>50.25581395348837</v>
+      </c>
+      <c r="O19">
+        <v>61.09302325581395</v>
+      </c>
+      <c r="P19">
+        <v>43</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>6</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -1727,7 +1707,7 @@
         </is>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -1736,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>261</v>
+        <v>380</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1745,7 +1725,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1765,29 +1745,29 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>stimuli/img_p3hpc.png</t>
+          <t>stimuli/img_ac0ey.png</t>
         </is>
       </c>
       <c r="M20">
-        <v>72.83333333333333</v>
+        <v>86.62222222222222</v>
       </c>
       <c r="N20">
-        <v>52.22222222222222</v>
+        <v>70.02222222222223</v>
       </c>
       <c r="O20">
-        <v>62.52777777777777</v>
+        <v>78.32222222222222</v>
       </c>
       <c r="P20">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S20">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -1800,7 +1780,7 @@
         </is>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -1809,7 +1789,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>262</v>
+        <v>381</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1818,7 +1798,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1838,29 +1818,29 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>stimuli/img_nyv2b.png</t>
+          <t>stimuli/img_rru0v.png</t>
         </is>
       </c>
       <c r="M21">
-        <v>11.91176470588235</v>
+        <v>56.45238095238095</v>
       </c>
       <c r="N21">
-        <v>6.852941176470588</v>
+        <v>39.42857142857143</v>
       </c>
       <c r="O21">
-        <v>9.382352941176471</v>
+        <v>47.94047619047619</v>
       </c>
       <c r="P21">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="Q21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1873,7 +1853,7 @@
         </is>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1882,7 +1862,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>263</v>
+        <v>382</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1891,7 +1871,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1911,29 +1891,29 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>stimuli/img_9mky8.png</t>
+          <t>stimuli/img_vh7v8.png</t>
         </is>
       </c>
       <c r="M22">
-        <v>84.32352941176471</v>
+        <v>78.70454545454545</v>
       </c>
       <c r="N22">
-        <v>65.17647058823529</v>
+        <v>59.63636363636363</v>
       </c>
       <c r="O22">
-        <v>74.75</v>
+        <v>69.17045454545455</v>
       </c>
       <c r="P22">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R22">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S22">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1946,7 +1926,7 @@
         </is>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1955,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>264</v>
+        <v>383</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1964,44 +1944,49 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>target</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>old</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>f</t>
+          <t>j</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>stimuli/img_57os5.png</t>
+          <t>stimuli/img_tn8ys.png</t>
         </is>
       </c>
       <c r="M23">
-        <v>82.70588235294117</v>
+        <v>86.70454545454545</v>
       </c>
       <c r="N23">
-        <v>65.73529411764706</v>
+        <v>72.40909090909091</v>
       </c>
       <c r="O23">
-        <v>74.22058823529412</v>
+        <v>79.55681818181819</v>
       </c>
       <c r="P23">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -2014,7 +1999,7 @@
         </is>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -2023,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>265</v>
+        <v>384</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2032,7 +2017,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2047,29 +2032,29 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>stimuli/img_ensho.png</t>
+          <t>stimuli/img_1zhz6.png</t>
         </is>
       </c>
       <c r="M24">
-        <v>72.7948717948718</v>
+        <v>49.02272727272727</v>
       </c>
       <c r="N24">
-        <v>54.56410256410256</v>
+        <v>32.77272727272727</v>
       </c>
       <c r="O24">
-        <v>63.67948717948718</v>
+        <v>40.89772727272727</v>
       </c>
       <c r="P24">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="Q24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S24">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -2082,7 +2067,7 @@
         </is>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -2091,7 +2076,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>266</v>
+        <v>385</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2100,7 +2085,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -2120,29 +2105,29 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>stimuli/img_wyl6z.png</t>
+          <t>stimuli/img_ra2nm.png</t>
         </is>
       </c>
       <c r="M25">
-        <v>59.8235294117647</v>
+        <v>70.75</v>
       </c>
       <c r="N25">
-        <v>36.23529411764706</v>
+        <v>50.375</v>
       </c>
       <c r="O25">
-        <v>48.02941176470588</v>
+        <v>60.5625</v>
       </c>
       <c r="P25">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="Q25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R25">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -2155,7 +2140,7 @@
         </is>
       </c>
       <c r="C26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -2164,7 +2149,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>267</v>
+        <v>386</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2173,7 +2158,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>kitchens</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2188,29 +2173,29 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>stimuli/img_r2lxk.png</t>
+          <t>stimuli/img_g9od8.png</t>
         </is>
       </c>
       <c r="M26">
-        <v>89.24242424242425</v>
+        <v>59.34883720930232</v>
       </c>
       <c r="N26">
-        <v>67.6969696969697</v>
+        <v>37.83720930232558</v>
       </c>
       <c r="O26">
-        <v>78.46969696969697</v>
+        <v>48.59302325581395</v>
       </c>
       <c r="P26">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="S26">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -2223,7 +2208,7 @@
         </is>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -2232,7 +2217,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>268</v>
+        <v>387</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2241,49 +2226,44 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>stimuli/img_7wul8.png</t>
+          <t>stimuli/img_koooi.png</t>
         </is>
       </c>
       <c r="M27">
-        <v>43.03030303030303</v>
+        <v>63.95454545454545</v>
       </c>
       <c r="N27">
-        <v>25.54545454545455</v>
+        <v>44.56818181818182</v>
       </c>
       <c r="O27">
-        <v>34.28787878787879</v>
+        <v>54.26136363636364</v>
       </c>
       <c r="P27">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S27">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2296,7 +2276,7 @@
         </is>
       </c>
       <c r="C28">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -2305,7 +2285,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>269</v>
+        <v>388</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2314,40 +2294,35 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>target</t>
+          <t>living_rooms</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>old</t>
+          <t>new</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>j</t>
+          <t>f</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>stimuli/img_463mq.png</t>
+          <t>stimuli/img_1iam9.png</t>
         </is>
       </c>
       <c r="M28">
-        <v>51.35294117647059</v>
+        <v>31.94594594594595</v>
       </c>
       <c r="N28">
-        <v>30.20588235294118</v>
+        <v>23.97297297297297</v>
       </c>
       <c r="O28">
-        <v>40.77941176470588</v>
+        <v>27.95945945945946</v>
       </c>
       <c r="P28">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q28">
         <v>2</v>
@@ -2369,7 +2344,7 @@
         </is>
       </c>
       <c r="C29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -2378,7 +2353,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>270</v>
+        <v>389</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2387,49 +2362,890 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>kitchens</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>stimuli/img_jpjeg.png</t>
+        </is>
+      </c>
+      <c r="M29">
+        <v>90.90697674418605</v>
+      </c>
+      <c r="N29">
+        <v>74.3953488372093</v>
+      </c>
+      <c r="O29">
+        <v>82.65116279069767</v>
+      </c>
+      <c r="P29">
+        <v>43</v>
+      </c>
+      <c r="Q29">
+        <v>10</v>
+      </c>
+      <c r="R29">
+        <v>10</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>390</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>stimuli/img_165pk.png</t>
+        </is>
+      </c>
+      <c r="M30">
+        <v>85.73333333333333</v>
+      </c>
+      <c r="N30">
+        <v>69.22222222222223</v>
+      </c>
+      <c r="O30">
+        <v>77.47777777777779</v>
+      </c>
+      <c r="P30">
+        <v>45</v>
+      </c>
+      <c r="Q30">
+        <v>9</v>
+      </c>
+      <c r="R30">
+        <v>9</v>
+      </c>
+      <c r="S30">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>391</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>stimuli/img_jkm86.png</t>
+        </is>
+      </c>
+      <c r="M31">
+        <v>58.32558139534883</v>
+      </c>
+      <c r="N31">
+        <v>38.65116279069768</v>
+      </c>
+      <c r="O31">
+        <v>48.48837209302326</v>
+      </c>
+      <c r="P31">
+        <v>43</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C32">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>392</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>target</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>old</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>j</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>stimuli/img_ce9vx.png</t>
-        </is>
-      </c>
-      <c r="M29">
-        <v>75.90909090909091</v>
-      </c>
-      <c r="N29">
-        <v>57.12121212121212</v>
-      </c>
-      <c r="O29">
-        <v>66.51515151515152</v>
-      </c>
-      <c r="P29">
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>stimuli/img_njhlh.png</t>
+        </is>
+      </c>
+      <c r="M32">
+        <v>59.74418604651163</v>
+      </c>
+      <c r="N32">
+        <v>41.51162790697674</v>
+      </c>
+      <c r="O32">
+        <v>50.62790697674419</v>
+      </c>
+      <c r="P32">
+        <v>43</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>393</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>stimuli/img_rg4in.png</t>
+        </is>
+      </c>
+      <c r="M33">
+        <v>49.3695652173913</v>
+      </c>
+      <c r="N33">
+        <v>30.21739130434782</v>
+      </c>
+      <c r="O33">
+        <v>39.79347826086956</v>
+      </c>
+      <c r="P33">
+        <v>46</v>
+      </c>
+      <c r="Q33">
+        <v>3</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="S33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>33</v>
       </c>
-      <c r="Q29">
-        <v>7</v>
-      </c>
-      <c r="R29">
-        <v>7</v>
-      </c>
-      <c r="S29">
-        <v>7</v>
+      <c r="F34">
+        <v>394</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>stimuli/img_astid.png</t>
+        </is>
+      </c>
+      <c r="M34">
+        <v>31.04761904761905</v>
+      </c>
+      <c r="N34">
+        <v>25.54761904761905</v>
+      </c>
+      <c r="O34">
+        <v>28.29761904761905</v>
+      </c>
+      <c r="P34">
+        <v>42</v>
+      </c>
+      <c r="Q34">
+        <v>2</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C35">
+        <v>6</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>395</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>stimuli/img_c0ecw.png</t>
+        </is>
+      </c>
+      <c r="M35">
+        <v>18.88888888888889</v>
+      </c>
+      <c r="N35">
+        <v>17.82222222222222</v>
+      </c>
+      <c r="O35">
+        <v>18.35555555555555</v>
+      </c>
+      <c r="P35">
+        <v>45</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+      <c r="F36">
+        <v>396</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>stimuli/img_v771n.png</t>
+        </is>
+      </c>
+      <c r="M36">
+        <v>22.325</v>
+      </c>
+      <c r="N36">
+        <v>15.25</v>
+      </c>
+      <c r="O36">
+        <v>18.7875</v>
+      </c>
+      <c r="P36">
+        <v>40</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C37">
+        <v>6</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>36</v>
+      </c>
+      <c r="F37">
+        <v>397</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>stimuli/img_5jp4f.png</t>
+        </is>
+      </c>
+      <c r="M37">
+        <v>84.85714285714286</v>
+      </c>
+      <c r="N37">
+        <v>67.83333333333333</v>
+      </c>
+      <c r="O37">
+        <v>76.3452380952381</v>
+      </c>
+      <c r="P37">
+        <v>42</v>
+      </c>
+      <c r="Q37">
+        <v>9</v>
+      </c>
+      <c r="R37">
+        <v>9</v>
+      </c>
+      <c r="S37">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C38">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>37</v>
+      </c>
+      <c r="F38">
+        <v>398</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>stimuli/img_j4ttn.png</t>
+        </is>
+      </c>
+      <c r="M38">
+        <v>12.61904761904762</v>
+      </c>
+      <c r="N38">
+        <v>11.42857142857143</v>
+      </c>
+      <c r="O38">
+        <v>12.02380952380952</v>
+      </c>
+      <c r="P38">
+        <v>42</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+      <c r="R38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
+      </c>
+      <c r="F39">
+        <v>399</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>stimuli/img_vgh2g.png</t>
+        </is>
+      </c>
+      <c r="M39">
+        <v>93.81395348837209</v>
+      </c>
+      <c r="N39">
+        <v>78.27906976744185</v>
+      </c>
+      <c r="O39">
+        <v>86.04651162790697</v>
+      </c>
+      <c r="P39">
+        <v>43</v>
+      </c>
+      <c r="Q39">
+        <v>10</v>
+      </c>
+      <c r="R39">
+        <v>10</v>
+      </c>
+      <c r="S39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40">
+        <v>39</v>
+      </c>
+      <c r="F40">
+        <v>400</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>j</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>stimuli/img_9oofc.png</t>
+        </is>
+      </c>
+      <c r="M40">
+        <v>82.47619047619048</v>
+      </c>
+      <c r="N40">
+        <v>65.5</v>
+      </c>
+      <c r="O40">
+        <v>73.98809523809524</v>
+      </c>
+      <c r="P40">
+        <v>42</v>
+      </c>
+      <c r="Q40">
+        <v>8</v>
+      </c>
+      <c r="R40">
+        <v>8</v>
+      </c>
+      <c r="S40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41">
+        <v>40</v>
+      </c>
+      <c r="F41">
+        <v>401</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>living_rooms</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>f</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>stimuli/img_xpco9.png</t>
+        </is>
+      </c>
+      <c r="M41">
+        <v>81.55555555555556</v>
+      </c>
+      <c r="N41">
+        <v>64.68888888888888</v>
+      </c>
+      <c r="O41">
+        <v>73.12222222222222</v>
+      </c>
+      <c r="P41">
+        <v>45</v>
+      </c>
+      <c r="Q41">
+        <v>8</v>
+      </c>
+      <c r="R41">
+        <v>8</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
